--- a/public/preprocessing/@FirzaHusain.xlsx
+++ b/public/preprocessing/@FirzaHusain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15846</v>
+        <v>26713</v>
       </c>
       <c r="C2" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -488,15 +493,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -507,34 +517,35 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15847</v>
+        <v>26714</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>iya</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -543,10 +554,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15848</v>
+        <v>26715</v>
       </c>
       <c r="C4" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -556,15 +567,20 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -575,30 +591,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15849</v>
+        <v>26716</v>
       </c>
       <c r="C5" t="n">
-        <v>200</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>yup betul sekali</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yup', 'betul', 'sekali']</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya', 'betul', 'sekali']</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -607,34 +632,39 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15850</v>
+        <v>26717</v>
       </c>
       <c r="C6" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>seno didu</t>
+          <t>dibuang ke laut jadiin rumpon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>['seno', 'didu']</t>
+          <t>['dibuang', 'ke', 'laut', 'jadiin', 'rumpon']</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['dibuang', 'ke', 'laut', 'jadikan', 'rumpon']</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['seno', 'didu']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['seno', 'didu']</t>
+          <t>['dibuang', 'laut', 'jadikan', 'rumpon']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['buang', 'laut', 'jadi', 'rumpon']</t>
         </is>
       </c>
     </row>
@@ -643,34 +673,39 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15851</v>
+        <v>26718</v>
       </c>
       <c r="C7" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>didu hassan</t>
+          <t>tirta</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>['didu', 'hassan']</t>
+          <t>['tirta']</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>['tirta']</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['didu', 'hassan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['didu', 'hassan']</t>
+          <t>['tirta']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['tirta']</t>
         </is>
       </c>
     </row>
@@ -679,30 +714,39 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15852</v>
+        <v>26719</v>
       </c>
       <c r="C8" t="n">
-        <v>200</v>
-      </c>
-      <c r="D8" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>shati</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['shati']</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['shati']</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['shati']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['shati']</t>
         </is>
       </c>
     </row>
@@ -711,30 +755,39 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>15853</v>
+        <v>26720</v>
       </c>
       <c r="C9" t="n">
-        <v>200</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>minimal</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['minimal']</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['minimal']</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['minimal']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['minimal']</t>
         </is>
       </c>
     </row>
@@ -743,34 +796,35 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>15854</v>
+        <v>26721</v>
       </c>
       <c r="C10" t="n">
-        <v>200</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>pky penjilat</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>['pky', 'penjilat']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['pky', 'penjilat']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['pky', 'jilat']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -779,28 +833,37 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15855</v>
+        <v>26722</v>
       </c>
       <c r="C11" t="n">
-        <v>200</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>enggak</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['enggak']</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak']</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -811,34 +874,35 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15856</v>
+        <v>26723</v>
       </c>
       <c r="C12" t="n">
-        <v>200</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>oowwhhh</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>['oowwhhh']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['oowwhhh']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['oowwhhh']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -847,34 +911,35 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>15857</v>
+        <v>26724</v>
       </c>
       <c r="C13" t="n">
-        <v>200</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>jacobus</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>['jacobus']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['jacobus']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['jacobus']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -883,34 +948,39 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>15858</v>
+        <v>26725</v>
       </c>
       <c r="C14" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>yup</t>
+          <t>iya sama becak listrik</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['iya', 'sama', 'becak', 'listrik']</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'sama', 'becak', 'listrik']</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['iya', 'becak', 'listrik']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['iya', 'becak', 'listrik']</t>
         </is>
       </c>
     </row>
@@ -919,30 +989,39 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15859</v>
+        <v>26726</v>
       </c>
       <c r="C15" t="n">
-        <v>200</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>jarang dapat duduk</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jarang', 'dapat', 'duduk']</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['jarang', 'dapat', 'duduk']</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jarang', 'duduk']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['jarang', 'duduk']</t>
         </is>
       </c>
     </row>
@@ -951,30 +1030,39 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>15860</v>
+        <v>26727</v>
       </c>
       <c r="C16" t="n">
-        <v>200</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>eng bagusan ini sih pemakaian pribadi terawat baik</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['eng', 'bagusan', 'ini', 'sih', 'pemakaian', 'pribadi', 'terawat', 'baik']</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['eng', 'bagusan', 'ini', 'sih', 'pemakaian', 'pribadi', 'terawat', 'baik']</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['eng', 'bagusan', 'pemakaian', 'pribadi', 'terawat']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['eng', 'bagus', 'pakai', 'pribadi', 'awat']</t>
         </is>
       </c>
     </row>
@@ -983,10 +1071,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15861</v>
+        <v>26728</v>
       </c>
       <c r="C17" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -996,15 +1084,20 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1015,30 +1108,39 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>15862</v>
+        <v>26729</v>
       </c>
       <c r="C18" t="n">
-        <v>200</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>gustaman jubilee masih kurang muda</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gustaman', 'jubilee', 'masih', 'kurang', 'muda']</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['gustaman', 'jubilee', 'masih', 'kurang', 'muda']</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gustaman', 'jubilee', 'muda']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['gustaman', 'jubilee', 'muda']</t>
         </is>
       </c>
     </row>
@@ -1047,30 +1149,39 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>15863</v>
+        <v>26730</v>
       </c>
       <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>kayak odong dong</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kayak', 'odong', 'dong']</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kayak', 'odong', 'dong']</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kayak', 'odong']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['kayak', 'odong']</t>
         </is>
       </c>
     </row>
@@ -1079,28 +1190,37 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>15864</v>
+        <v>26731</v>
       </c>
       <c r="C20" t="n">
-        <v>200</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>ga bakal</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ga', 'bakal']</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak', 'bakal']</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1111,34 +1231,39 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>15865</v>
+        <v>26732</v>
       </c>
       <c r="C21" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>betul</t>
+          <t>mochy bentar lagi ga boleh gitu padahal jarang pakai</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>['betul']</t>
+          <t>['mochy', 'bentar', 'lagi', 'ga', 'boleh', 'gitu', 'padahal', 'jarang', 'pakai']</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['mochy', 'bentar', 'lagi', 'tidak', 'boleh', 'begitu', 'padahal', 'jarang', 'pakai']</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mochy', 'bentar', 'jarang', 'pakai']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['mochy', 'bentar', 'jarang', 'pakai']</t>
         </is>
       </c>
     </row>
@@ -1147,34 +1272,35 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15866</v>
+        <v>26733</v>
       </c>
       <c r="C22" t="n">
-        <v>200</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>aamiin</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1183,34 +1309,35 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>15867</v>
+        <v>26734</v>
       </c>
       <c r="C23" t="n">
-        <v>200</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>aamiin</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1219,34 +1346,35 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15868</v>
+        <v>26735</v>
       </c>
       <c r="C24" t="n">
-        <v>200</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>aamiin</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1255,34 +1383,39 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>15869</v>
+        <v>26736</v>
       </c>
       <c r="C25" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>boleh</t>
+          <t>masak tiap taun ganti</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>['boleh']</t>
+          <t>['masak', 'tiap', 'taun', 'ganti']</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['masak', 'tiap', 'tahun', 'ganti']</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['masak', 'ganti']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['masak', 'ganti']</t>
         </is>
       </c>
     </row>
@@ -1291,10 +1424,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>15870</v>
+        <v>26737</v>
       </c>
       <c r="C26" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -1304,15 +1437,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H26" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1323,28 +1461,37 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>15871</v>
+        <v>26738</v>
       </c>
       <c r="C27" t="n">
-        <v>200</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>ga bakal</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ga', 'bakal']</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['tidak', 'bakal']</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1355,30 +1502,39 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>15872</v>
+        <v>26739</v>
       </c>
       <c r="C28" t="n">
-        <v>200</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>ra iya</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ra', 'iya']</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ra', 'iya']</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ra', 'iya']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['ra', 'iya']</t>
         </is>
       </c>
     </row>
@@ -1387,10 +1543,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>15873</v>
+        <v>26740</v>
       </c>
       <c r="C29" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1400,15 +1556,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H29" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1419,10 +1580,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>15874</v>
+        <v>26741</v>
       </c>
       <c r="C30" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1432,15 +1593,20 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1451,34 +1617,39 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15875</v>
+        <v>26742</v>
       </c>
       <c r="C31" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>setuju sih aku dengan dr tirta ga ada koordinasi untuk pengerahan massa spontanitas aja beda dgn yg dulu itu</t>
+          <t>skeptis</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>['setuju', 'sih', 'aku', 'dengan', 'dr', 'tirta', 'ga', 'ada', 'koordinasi', 'untuk', 'pengerahan', 'massa', 'spontanitas', 'aja', 'beda', 'dgn', 'yg', 'dulu', 'itu']</t>
+          <t>['skeptis']</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 19 samples and 19 outcomes&gt;</t>
+          <t>['skeptis']</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>['setuju', 'dr', 'tirta', 'koordinasi', 'pengerahan', 'massa', 'spontanitas', 'beda']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['tuju', 'dr', 'tirta', 'koordinasi', 'kerah', 'massa', 'spontanitas', 'beda']</t>
+          <t>['skeptis']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['skeptis']</t>
         </is>
       </c>
     </row>
@@ -1487,10 +1658,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>15876</v>
+        <v>26743</v>
       </c>
       <c r="C32" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
@@ -1500,15 +1671,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H32" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1519,34 +1695,35 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15877</v>
+        <v>26744</v>
       </c>
       <c r="C33" t="n">
-        <v>200</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>xx hassan</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>['xx', 'hassan']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>['xx', 'hassan']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['xx', 'hassan']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1555,34 +1732,39 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>15878</v>
+        <v>26745</v>
       </c>
       <c r="C34" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>pky</t>
+          <t>yup itu lebih bijaksana</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>['pky']</t>
+          <t>['yup', 'itu', 'lebih', 'bijaksana']</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'itu', 'lebih', 'bijaksana']</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>['pky']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['pky']</t>
+          <t>['iya', 'bijaksana']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['iya', 'bijaksana']</t>
         </is>
       </c>
     </row>
@@ -1591,30 +1773,39 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15879</v>
+        <v>26746</v>
       </c>
       <c r="C35" t="n">
-        <v>200</v>
-      </c>
-      <c r="D35" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>aktam</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aktam']</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['aktam']</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['aktam']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['aktam']</t>
         </is>
       </c>
     </row>
@@ -1623,30 +1814,39 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15880</v>
+        <v>26747</v>
       </c>
       <c r="C36" t="n">
-        <v>200</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>deje</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['deje']</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['deje']</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['deje']</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>['deje']</t>
         </is>
       </c>
     </row>
@@ -1655,34 +1855,39 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15881</v>
+        <v>26748</v>
       </c>
       <c r="C37" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>anugrah</t>
+          <t>jubilee bisa banget sih</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>['anugrah']</t>
+          <t>['jubilee', 'bisa', 'banget', 'sih']</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['jubilee', 'bisa', 'banget', 'sih']</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>['anugrah']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['anugrah']</t>
+          <t>['jubilee', 'banget']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['jubilee', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1691,34 +1896,39 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>15882</v>
+        <v>26749</v>
       </c>
       <c r="C38" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>atana</t>
+          <t>rayans</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>['atana']</t>
+          <t>['rayans']</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rayans']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['atana']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['atana']</t>
+          <t>['rayans']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['rayans']</t>
         </is>
       </c>
     </row>
@@ -1727,10 +1937,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>15883</v>
+        <v>26750</v>
       </c>
       <c r="C39" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
@@ -1740,15 +1950,20 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -1759,34 +1974,39 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15884</v>
+        <v>26751</v>
       </c>
       <c r="C40" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>bukankah gubernur sekarang lebih hebat dari bu susi</t>
+          <t>jack</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>['bukankah', 'gubernur', 'sekarang', 'lebih', 'hebat', 'dari', 'bu', 'susi']</t>
+          <t>['jack']</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
+          <t>['jack']</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['gubernur', 'hebat', 'bu', 'susi']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>['gubernur', 'hebat', 'bu', 'sus']</t>
+          <t>['jack']</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>['jack']</t>
         </is>
       </c>
     </row>
@@ -1795,30 +2015,39 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15885</v>
+        <v>26752</v>
       </c>
       <c r="C41" t="n">
-        <v>200</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>semua untung</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['semua', 'untung']</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['semua', 'untung']</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['untung']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['untung']</t>
         </is>
       </c>
     </row>
@@ -1827,30 +2056,39 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15886</v>
+        <v>26753</v>
       </c>
       <c r="C42" t="n">
-        <v>200</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>yup</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['yup']</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -1859,34 +2097,35 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>15887</v>
+        <v>26754</v>
       </c>
       <c r="C43" t="n">
-        <v>200</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>puspita</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>['puspita']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>['puspita']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['puspita']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1895,30 +2134,39 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>15888</v>
+        <v>26755</v>
       </c>
       <c r="C44" t="n">
-        <v>200</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>iya</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -1927,34 +2175,35 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15889</v>
+        <v>26756</v>
       </c>
       <c r="C45" t="n">
-        <v>200</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>tadi lihat berita di cnn indonesia</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>['tadi', 'lihat', 'berita', 'di', 'cnn', 'indonesia']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>['lihat', 'berita', 'cnn', 'indonesia']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['lihat', 'berita', 'cnn', 'indonesia']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -1963,34 +2212,39 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>15890</v>
+        <v>26757</v>
       </c>
       <c r="C46" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>aamiin</t>
+          <t>cape berdiri terus</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['cape', 'berdiri', 'terus']</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['cape', 'berdiri', 'terus']</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>['aamiin']</t>
+          <t>['cape', 'berdiri']</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>['cape', 'diri']</t>
         </is>
       </c>
     </row>
@@ -1999,10 +2253,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15891</v>
+        <v>26758</v>
       </c>
       <c r="C47" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
@@ -2012,15 +2266,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2031,30 +2290,39 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15892</v>
+        <v>26759</v>
       </c>
       <c r="C48" t="n">
-        <v>200</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>konyol kan dia aja ga bakal gubernur lagi</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['konyol', 'kan', 'dia', 'aja', 'ga', 'bakal', 'gubernur', 'lagi']</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['konyol', 'kan', 'dia', 'saja', 'tidak', 'bakal', 'gubernur', 'lagi']</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['konyol', 'gubernur']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['konyol', 'gubernur']</t>
         </is>
       </c>
     </row>
@@ -2063,34 +2331,39 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>15893</v>
+        <v>26760</v>
       </c>
       <c r="C49" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>iya besok larinya ke daerah</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['iya', 'besok', 'larinya', 'ke', 'daerah']</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['iya', 'besok', 'larinya', 'ke', 'daerah']</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['iya', 'besok', 'larinya', 'daerah']</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>['iya', 'besok', 'lari', 'daerah']</t>
         </is>
       </c>
     </row>
@@ -2099,34 +2372,39 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15894</v>
+        <v>26761</v>
       </c>
       <c r="C50" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>ko</t>
+          <t>iya</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>['ko']</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['ko']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['ko']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -2135,30 +2413,39 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>15895</v>
+        <v>26762</v>
       </c>
       <c r="C51" t="n">
-        <v>200</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>gubernur aja deh ganti</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gubernur', 'aja', 'deh', 'ganti']</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['gubernur', 'saja', 'deh', 'ganti']</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gubernur', 'deh', 'ganti']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['gubernur', 'deh', 'ganti']</t>
         </is>
       </c>
     </row>
@@ -2167,34 +2454,39 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15896</v>
+        <v>26763</v>
       </c>
       <c r="C52" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>udy</t>
+          <t>betis besar dong</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>['udy']</t>
+          <t>['betis', 'besar', 'dong']</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['betis', 'besar', 'dong']</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>['udy']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>['udy']</t>
+          <t>['betis']</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>['betis']</t>
         </is>
       </c>
     </row>
@@ -2203,30 +2495,39 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>15897</v>
+        <v>26764</v>
       </c>
       <c r="C53" t="n">
-        <v>200</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>udy</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['udy']</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['udy']</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['udy']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['udy']</t>
         </is>
       </c>
     </row>
@@ -2235,34 +2536,39 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>15898</v>
+        <v>26765</v>
       </c>
       <c r="C54" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>katsumoto</t>
+          <t>airq</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>['katsumoto']</t>
+          <t>['airq']</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['airq']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['katsumoto']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['katsumoto']</t>
+          <t>['airq']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['airq']</t>
         </is>
       </c>
     </row>
@@ -2271,30 +2577,39 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>15899</v>
+        <v>26766</v>
       </c>
       <c r="C55" t="n">
-        <v>200</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>armayanto iya</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['armayanto', 'iya']</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['armayanto', 'iya']</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['armayanto', 'iya']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['armayanto', 'iya']</t>
         </is>
       </c>
     </row>
@@ -2303,34 +2618,35 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>15900</v>
+        <v>26767</v>
       </c>
       <c r="C56" t="n">
-        <v>200</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>wb aamiin</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>['wb', 'aamiin']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>['wb', 'aamiin']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>['wb', 'aamiin']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2339,34 +2655,39 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15901</v>
+        <v>26768</v>
       </c>
       <c r="C57" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>bahaya klu ga bisa menyimpan</t>
+          <t>sama</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>['bahaya', 'klu', 'ga', 'bisa', 'menyimpan']</t>
+          <t>['sama']</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['sama']</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>['bahaya', 'klu', 'menyimpan']</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['bahaya', 'klu', 'simpan']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2375,30 +2696,39 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>15902</v>
+        <v>26769</v>
       </c>
       <c r="C58" t="n">
-        <v>200</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>feraldi boong aja dia</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['feraldi', 'boong', 'aja', 'dia']</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['feraldi', 'bohong', 'saja', 'dia']</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['feraldi', 'bohong']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['feraldi', 'bohong']</t>
         </is>
       </c>
     </row>
@@ -2407,34 +2737,39 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15903</v>
+        <v>26770</v>
       </c>
       <c r="C59" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>shaffa</t>
+          <t>setiabudi iya</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>['shaffa']</t>
+          <t>['setiabudi', 'iya']</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['setiabudi', 'iya']</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>['shaffa']</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['shaffa']</t>
+          <t>['setiabudi', 'iya']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['setiabudi', 'iya']</t>
         </is>
       </c>
     </row>
@@ -2443,30 +2778,39 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>15904</v>
+        <v>26771</v>
       </c>
       <c r="C60" t="n">
-        <v>200</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>iya tapi tetap ga boleh masuk jakarta</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya', 'tapi', 'tetap', 'ga', 'boleh', 'masuk', 'jakarta']</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya', 'tapi', 'tetap', 'tidak', 'boleh', 'masuk', 'jakarta']</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya', 'masuk', 'jakarta']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['iya', 'masuk', 'jakarta']</t>
         </is>
       </c>
     </row>
@@ -2475,34 +2819,35 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>15905</v>
+        <v>26772</v>
       </c>
       <c r="C61" t="n">
-        <v>200</v>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>chewok iya</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>['chewok', 'iya']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>['chewok', 'iya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>['chewok', 'iya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2511,30 +2856,39 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15906</v>
+        <v>26773</v>
       </c>
       <c r="C62" t="n">
-        <v>200</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>ganti gibran aja deh</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ganti', 'gibran', 'aja', 'deh']</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['ganti', 'gibran', 'saja', 'deh']</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['ganti', 'gibran', 'deh']</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>['ganti', 'gibran', 'deh']</t>
         </is>
       </c>
     </row>
@@ -2543,30 +2897,39 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15907</v>
+        <v>26774</v>
       </c>
       <c r="C63" t="n">
-        <v>200</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>iya</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -2575,30 +2938,39 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>15908</v>
+        <v>26775</v>
       </c>
       <c r="C64" t="n">
-        <v>200</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>rencana ada pergub pembatasan usia mobil maksimal tahun selebihnya suruh buang ke laut</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rencana', 'ada', 'pergub', 'pembatasan', 'usia', 'mobil', 'maksimal', 'tahun', 'selebihnya', 'suruh', 'buang', 'ke', 'laut']</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['rencana', 'ada', 'peraturan, gubernur', 'pembatasan', 'usia', 'mobil', 'maksimal', 'tahun', 'selebihnya', 'suruh', 'buang', 'ke', 'laut']</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['rencana', 'peraturan, gubernur', 'pembatasan', 'usia', 'mobil', 'maksimal', 'selebihnya', 'suruh', 'buang', 'laut']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['rencana', 'atur gubernur', 'batas', 'usia', 'mobil', 'maksimal', 'lebih', 'suruh', 'buang', 'laut']</t>
         </is>
       </c>
     </row>
@@ -2607,30 +2979,39 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>15909</v>
+        <v>26776</v>
       </c>
       <c r="C65" t="n">
-        <v>200</v>
-      </c>
-      <c r="D65" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>cepoe</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cepoe']</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['cepoe']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['cepoe']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['cepoe']</t>
         </is>
       </c>
     </row>
@@ -2639,34 +3020,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>15910</v>
+        <v>26777</v>
       </c>
       <c r="C66" t="n">
-        <v>200</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>heryanto ridwan saidi</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>['heryanto', 'ridwan', 'saidi']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>['heryanto', 'ridwan', 'saidi']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>['heryanto', 'ridwan', 'saidi']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -2675,30 +3057,39 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>15911</v>
+        <v>26778</v>
       </c>
       <c r="C67" t="n">
-        <v>200</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>eng jeti</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['eng', 'jeti']</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['eng', 'jeti']</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['eng', 'jeti']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['eng', 'jet']</t>
         </is>
       </c>
     </row>
@@ -2707,30 +3098,39 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15912</v>
+        <v>26779</v>
       </c>
       <c r="C68" t="n">
-        <v>200</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>gimana ga kesel coba dibela in menabung menyisihkan uang belanja baru menimang mobil impian thn yg terjang</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['gimana', 'ga', 'kesel', 'coba', 'dibela', 'in', 'menabung', 'menyisihkan', 'uang', 'belanja', 'baru', 'menimang', 'mobil', 'impian', 'thn', 'yg', 'terjang']</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['bagaimana', 'tidak', 'kesal', 'coba', 'dibela', 'in', 'menabung', 'menyisihkan', 'uang', 'belanja', 'baru', 'menimang', 'mobil', 'impian', 'tahun', 'yang', 'terjang']</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kesal', 'coba', 'dibela', 'in', 'menabung', 'menyisihkan', 'uang', 'belanja', 'menimang', 'mobil', 'impian', 'terjang']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['kesal', 'coba', 'bela', 'in', 'tabung', 'sisih', 'uang', 'belanja', 'timang', 'mobil', 'impi', 'terjang']</t>
         </is>
       </c>
     </row>
@@ -2739,10 +3139,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>15913</v>
+        <v>26780</v>
       </c>
       <c r="C69" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -2752,15 +3152,20 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2771,10 +3176,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>15914</v>
+        <v>26781</v>
       </c>
       <c r="C70" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
@@ -2784,15 +3189,20 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2803,34 +3213,39 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>15915</v>
+        <v>26782</v>
       </c>
       <c r="C71" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>yup</t>
+          <t>amk</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['amk']</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['amk']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['yup']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['amk']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['amk']</t>
         </is>
       </c>
     </row>
@@ -2839,30 +3254,39 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15916</v>
+        <v>26783</v>
       </c>
       <c r="C72" t="n">
-        <v>200</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>jailbreaker penggemarnya</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jailbreaker', 'penggemarnya']</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['jailbreaker', 'penggemarnya']</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['jailbreaker', 'penggemarnya']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['jailbreaker', 'gemar']</t>
         </is>
       </c>
     </row>
@@ -2871,30 +3295,39 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15917</v>
+        <v>26784</v>
       </c>
       <c r="C73" t="n">
-        <v>200</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>shati</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['shati']</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['shati']</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['shati']</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>['shati']</t>
         </is>
       </c>
     </row>
@@ -2903,10 +3336,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15918</v>
+        <v>26785</v>
       </c>
       <c r="C74" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -2916,15 +3349,20 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2935,10 +3373,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>15919</v>
+        <v>26786</v>
       </c>
       <c r="C75" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -2948,15 +3386,20 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -2967,34 +3410,39 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15920</v>
+        <v>26787</v>
       </c>
       <c r="C76" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>eneste</t>
+          <t>dong beli murah ya</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>['dong', 'beli', 'murah', 'ya']</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>['dong', 'beli', 'murah', 'ya']</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>['beli', 'murah']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['beli', 'murah']</t>
         </is>
       </c>
     </row>
@@ -3003,10 +3451,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15921</v>
+        <v>26788</v>
       </c>
       <c r="C77" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
@@ -3016,15 +3464,20 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3035,34 +3488,35 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15922</v>
+        <v>26789</v>
       </c>
       <c r="C78" t="n">
-        <v>200</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>daffa</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['daffa']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['daffa']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['daffa']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3071,30 +3525,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15923</v>
+        <v>26790</v>
       </c>
       <c r="C79" t="n">
-        <v>200</v>
-      </c>
-      <c r="D79" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>iya</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -3103,34 +3566,35 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>15924</v>
+        <v>26791</v>
       </c>
       <c r="C80" t="n">
-        <v>200</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>ganesa iya</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['ganesa', 'iya']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['ganesa', 'iya']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['ganesa', 'iya']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3139,34 +3603,35 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>15925</v>
+        <v>26792</v>
       </c>
       <c r="C81" t="n">
-        <v>200</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>eneste</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['eneste']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3175,30 +3640,39 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15926</v>
+        <v>26793</v>
       </c>
       <c r="C82" t="n">
-        <v>200</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>iya</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -3207,10 +3681,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15927</v>
+        <v>26794</v>
       </c>
       <c r="C83" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -3220,15 +3694,20 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3239,34 +3718,35 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15928</v>
+        <v>26795</v>
       </c>
       <c r="C84" t="n">
-        <v>200</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>yoza</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>['yoza']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>['yoza']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>['yoza']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3275,34 +3755,39 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15929</v>
+        <v>26796</v>
       </c>
       <c r="C85" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>purwatmo</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['purwatmo']</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
+          <t>['purwatmo']</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>['iya']</t>
-        </is>
-      </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['purwatmo']</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>['purwatmo']</t>
         </is>
       </c>
     </row>
@@ -3311,30 +3796,39 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15930</v>
+        <v>26797</v>
       </c>
       <c r="C86" t="n">
-        <v>200</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>itu lebih adil daripada pembatasan usia kendaraan</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['itu', 'lebih', 'adil', 'daripada', 'pembatasan', 'usia', 'kendaraan']</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['itu', 'lebih', 'adil', 'daripada', 'pembatasan', 'usia', 'kendaraan']</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['adil', 'pembatasan', 'usia', 'kendaraan']</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>['adil', 'batas', 'usia', 'kendara']</t>
         </is>
       </c>
     </row>
@@ -3343,10 +3837,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>15931</v>
+        <v>26798</v>
       </c>
       <c r="C87" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
@@ -3356,15 +3850,20 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3375,30 +3874,39 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>15932</v>
+        <v>26799</v>
       </c>
       <c r="C88" t="n">
-        <v>200</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>dansu</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dansu']</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['dansu']</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['dansu']</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>['dansu']</t>
         </is>
       </c>
     </row>
@@ -3407,30 +3915,39 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>15933</v>
+        <v>26800</v>
       </c>
       <c r="C89" t="n">
-        <v>200</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>klu mengatasi kemacetan dgn pembatasan usia mobil ga usah pa tarno juga bisa klu thn masih mace</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['klu', 'mengatasi', 'kemacetan', 'dgn', 'pembatasan', 'usia', 'mobil', 'ga', 'usah', 'pa', 'tarno', 'juga', 'bisa', 'klu', 'thn', 'masih', 'mace']</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kalau', 'mengatasi', 'kemacetan', 'dengan', 'pembatasan', 'usia', 'mobil', 'tidak', 'usah', 'pak', 'tarno', 'juga', 'bisa', 'kalau', 'tahun', 'masih', 'mace']</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['mengatasi', 'kemacetan', 'pembatasan', 'usia', 'mobil', 'tarno', 'mace']</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>['atas', 'macet', 'batas', 'usia', 'mobil', 'tarno', 'mace']</t>
         </is>
       </c>
     </row>
@@ -3439,30 +3956,39 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>15934</v>
+        <v>26801</v>
       </c>
       <c r="C90" t="n">
-        <v>200</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>atana</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['atana']</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['atana']</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['atana']</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>['atana']</t>
         </is>
       </c>
     </row>
@@ -3471,32 +3997,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15935</v>
+        <v>26802</v>
       </c>
       <c r="C91" t="n">
-        <v>200</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>dong</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>['dong']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3507,10 +4034,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15936</v>
+        <v>26803</v>
       </c>
       <c r="C92" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
@@ -3520,15 +4047,20 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H92" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3539,10 +4071,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>15937</v>
+        <v>26804</v>
       </c>
       <c r="C93" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
@@ -3552,15 +4084,20 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3571,34 +4108,39 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>15938</v>
+        <v>26805</v>
       </c>
       <c r="C94" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>alhamdulillah sinovac di china udah menyelesaikan uji klinis ketiga untuk anak usia thn sd thn hasilnya aman</t>
+          <t>trex betul sekali</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'sinovac', 'di', 'china', 'udah', 'menyelesaikan', 'uji', 'klinis', 'ketiga', 'untuk', 'anak', 'usia', 'thn', 'sd', 'thn', 'hasilnya', 'aman']</t>
+          <t>['trex', 'betul', 'sekali']</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 16 samples and 17 outcomes&gt;</t>
+          <t>['trex', 'betul', 'sekali']</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'sinovac', 'china', 'udah', 'menyelesaikan', 'uji', 'klinis', 'ketiga', 'anak', 'usia', 'thn', 'sd', 'thn', 'hasilnya', 'aman']</t>
+          <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>['alhamdulillah', 'sinovac', 'china', 'udah', 'selesai', 'uji', 'klinis', 'tiga', 'anak', 'usia', 'thn', 'sd', 'thn', 'hasil', 'aman']</t>
+          <t>['trex']</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>['trex']</t>
         </is>
       </c>
     </row>
@@ -3607,10 +4149,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>15939</v>
+        <v>26806</v>
       </c>
       <c r="C95" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
@@ -3620,15 +4162,20 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3639,30 +4186,39 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>15940</v>
+        <v>26807</v>
       </c>
       <c r="C96" t="n">
-        <v>200</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>kebijaksanaan anies itu ga berpihak kpd rakyat kecil syarat kepemilikan rmh dp rp ga diturunkan tp malah dinaika</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kebijaksanaan', 'anies', 'itu', 'ga', 'berpihak', 'kpd', 'rakyat', 'kecil', 'syarat', 'kepemilikan', 'rmh', 'dp', 'rp', 'ga', 'diturunkan', 'tp', 'malah', 'dinaika']</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['kebijaksanaan', 'anies', 'itu', 'tidak', 'berpihak', 'kepada', 'rakyat', 'kecil', 'syarat', 'kepemilikan', 'rumah', 'uang, muka', 'rupiah', 'tidak', 'diturunkan', 'tetapi', 'malah', 'dinaika']</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['kebijaksanaan', 'anies', 'berpihak', 'rakyat', 'syarat', 'kepemilikan', 'rumah', 'uang, muka', 'rupiah', 'diturunkan', 'dinaika']</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>['bijaksana', 'anies', 'pihak', 'rakyat', 'syarat', 'milik', 'rumah', 'uang muka', 'rupiah', 'turun', 'dinaika']</t>
         </is>
       </c>
     </row>
@@ -3671,30 +4227,39 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>15941</v>
+        <v>26808</v>
       </c>
       <c r="C97" t="n">
-        <v>200</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>317</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>sabam yup</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sabam', 'yup']</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
+          <t>['sabam', 'iya']</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['sabam', 'iya']</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>['sabam', 'iya']</t>
         </is>
       </c>
     </row>
@@ -3703,10 +4268,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>15942</v>
+        <v>26809</v>
       </c>
       <c r="C98" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
@@ -3716,15 +4281,20 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G98" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
       <c r="H98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -3735,34 +4305,35 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15943</v>
+        <v>26810</v>
       </c>
       <c r="C99" t="n">
-        <v>200</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>guys</t>
-        </is>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>['guys']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>['guys']</t>
+          <t>&lt;FreqDist with 0 samples and 0 outcomes&gt;</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>['guys']</t>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>[]</t>
         </is>
       </c>
     </row>
@@ -3771,34 +4342,39 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15944</v>
+        <v>26811</v>
       </c>
       <c r="C100" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>yup</t>
+          <t>iya</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['iya']</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G100" t="inlineStr">
-        <is>
-          <t>['yup']</t>
-        </is>
-      </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>['yup']</t>
+          <t>['iya']</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>['iya']</t>
         </is>
       </c>
     </row>
@@ -3807,34 +4383,39 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>15945</v>
+        <v>26812</v>
       </c>
       <c r="C101" t="n">
-        <v>200</v>
+        <v>317</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>iya</t>
+          <t>shati</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['shati']</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
+          <t>['shati']</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G101" t="inlineStr">
-        <is>
-          <t>['iya']</t>
-        </is>
-      </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>['iya']</t>
+          <t>['shati']</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>['shati']</t>
         </is>
       </c>
     </row>
